--- a/backend/processdata/data/excel/sell_info.xlsx
+++ b/backend/processdata/data/excel/sell_info.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="518">
   <si>
     <t>400人无料色纸</t>
   </si>
@@ -2911,6 +2911,88 @@
   </si>
   <si>
     <t>cn+群内qq:罗罗3489329357</t>
+  </si>
+  <si>
+    <r>
+      <t>cn+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>群内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>qq:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里姿莱希</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3327277815</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cn+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>群内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>qq:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鳄鱼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4715340</t>
+    </r>
   </si>
   <si>
     <r>
@@ -20886,7 +20968,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -21155,16 +21237,16 @@
       </c>
     </row>
     <row r="33" ht="16.5" spans="1:2">
-      <c r="A33" s="6" t="s">
-        <v>394</v>
+      <c r="A33" s="10" t="s">
+        <v>504</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="1:2">
-      <c r="A34" s="6" t="s">
-        <v>227</v>
+      <c r="A34" s="10" t="s">
+        <v>505</v>
       </c>
       <c r="B34" s="6">
         <v>5</v>
@@ -21172,7 +21254,7 @@
     </row>
     <row r="35" ht="16.5" spans="1:2">
       <c r="A35" s="10" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B35" s="6">
         <v>1</v>
@@ -21180,7 +21262,7 @@
     </row>
     <row r="36" ht="16.5" spans="1:2">
       <c r="A36" s="11" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B36" s="8">
         <v>3</v>
@@ -21211,7 +21293,7 @@
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>46</v>
@@ -21233,7 +21315,7 @@
     </row>
     <row r="3" ht="16.5" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -21249,7 +21331,7 @@
     </row>
     <row r="5" ht="16.5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -21313,7 +21395,7 @@
     </row>
     <row r="13" ht="16.5" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
@@ -21321,7 +21403,7 @@
     </row>
     <row r="14" ht="16.5" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B14" s="1">
         <v>5</v>
@@ -21329,7 +21411,7 @@
     </row>
     <row r="15" ht="16.5" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -21369,7 +21451,7 @@
     </row>
     <row r="20" ht="16.5" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -21489,7 +21571,7 @@
     </row>
     <row r="35" ht="16.5" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
@@ -21521,7 +21603,7 @@
     </row>
     <row r="39" ht="16.5" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B39" s="1">
         <v>10</v>
@@ -21617,7 +21699,7 @@
     </row>
     <row r="51" ht="16.5" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
